--- a/Data Input Sheets/Fuchia City Tournaments.xlsx
+++ b/Data Input Sheets/Fuchia City Tournaments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Trainer</t>
   </si>
@@ -35,6 +35,123 @@
   </si>
   <si>
     <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>Aroma Lady</t>
+  </si>
+  <si>
+    <t>Biker</t>
+  </si>
+  <si>
+    <t>Gentleman</t>
+  </si>
+  <si>
+    <t>Lady</t>
+  </si>
+  <si>
+    <t>Fisherman</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Scientist F</t>
+  </si>
+  <si>
+    <t>Crushgirl</t>
+  </si>
+  <si>
+    <t>Swimmer M</t>
+  </si>
+  <si>
+    <t>Youngster</t>
+  </si>
+  <si>
+    <t>Bug Catcher</t>
+  </si>
+  <si>
+    <t>Lass</t>
+  </si>
+  <si>
+    <t>Cool t M</t>
+  </si>
+  <si>
+    <t>Cool t F</t>
+  </si>
+  <si>
+    <t>Swimmer F</t>
+  </si>
+  <si>
+    <t>Bicyclist</t>
+  </si>
+  <si>
+    <t>Supernerd</t>
+  </si>
+  <si>
+    <t>Picknicker</t>
+  </si>
+  <si>
+    <t>Sailor</t>
+  </si>
+  <si>
+    <t>Dragon Tamer</t>
+  </si>
+  <si>
+    <t>Ruin Maniac</t>
+  </si>
+  <si>
+    <t>Poke ranger M</t>
+  </si>
+  <si>
+    <t>Poke ranger F</t>
+  </si>
+  <si>
+    <t>Psychic M</t>
+  </si>
+  <si>
+    <t>Psychic F</t>
+  </si>
+  <si>
+    <t>Fire Breather</t>
+  </si>
+  <si>
+    <t>Student F</t>
+  </si>
+  <si>
+    <t>Doctor M</t>
+  </si>
+  <si>
+    <t>Wigglytuff, Raichu, Gloom, Butterfree, Meowth, Phanphy</t>
+  </si>
+  <si>
+    <t>Bellsprout, Paras, Sunflora, Grimer, Embeer, Wooper</t>
+  </si>
+  <si>
+    <t>Koffing, Furret, Flaafy, Corsola, Drowzee, Scraggy</t>
+  </si>
+  <si>
+    <t>Growlithe, Machop, Krabby, Ivysaur, Cubone, Slitherm</t>
+  </si>
+  <si>
+    <t>Tentacool, Natu, Ggixie, Seviper, Exeggcute, Doduo</t>
+  </si>
+  <si>
+    <t>Goldeen, Marill, Misdreavus, Aufang, Gligar, Dratini</t>
+  </si>
+  <si>
+    <t>Ignatia, Shuckle, Deino, Muddle, Scyther, Aron</t>
+  </si>
+  <si>
+    <t>Mime Jr, Lapras, Charmeleon, Bohr, Pineco, Poliwag</t>
+  </si>
+  <si>
+    <t>Hopip, Kazub, Eevee, Eletrunk, Chinchou, Remoraid</t>
+  </si>
+  <si>
+    <t>Geodude, Hoot Hoot, Shellder, Chansey, Weepinbell, Voltorb</t>
   </si>
 </sst>
 </file>
@@ -395,13 +512,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -412,6 +533,86 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -421,13 +622,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -438,6 +642,56 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -447,13 +701,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -464,6 +721,56 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Data Input Sheets/Fuchia City Tournaments.xlsx
+++ b/Data Input Sheets/Fuchia City Tournaments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Roaring Twenties" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Trainer</t>
   </si>
@@ -37,93 +37,6 @@
     <t>Dialogue</t>
   </si>
   <si>
-    <t>Beauty</t>
-  </si>
-  <si>
-    <t>Aroma Lady</t>
-  </si>
-  <si>
-    <t>Biker</t>
-  </si>
-  <si>
-    <t>Gentleman</t>
-  </si>
-  <si>
-    <t>Lady</t>
-  </si>
-  <si>
-    <t>Fisherman</t>
-  </si>
-  <si>
-    <t>Sage</t>
-  </si>
-  <si>
-    <t>Scientist F</t>
-  </si>
-  <si>
-    <t>Crushgirl</t>
-  </si>
-  <si>
-    <t>Swimmer M</t>
-  </si>
-  <si>
-    <t>Youngster</t>
-  </si>
-  <si>
-    <t>Bug Catcher</t>
-  </si>
-  <si>
-    <t>Lass</t>
-  </si>
-  <si>
-    <t>Cool t M</t>
-  </si>
-  <si>
-    <t>Cool t F</t>
-  </si>
-  <si>
-    <t>Swimmer F</t>
-  </si>
-  <si>
-    <t>Bicyclist</t>
-  </si>
-  <si>
-    <t>Supernerd</t>
-  </si>
-  <si>
-    <t>Picknicker</t>
-  </si>
-  <si>
-    <t>Sailor</t>
-  </si>
-  <si>
-    <t>Dragon Tamer</t>
-  </si>
-  <si>
-    <t>Ruin Maniac</t>
-  </si>
-  <si>
-    <t>Poke ranger M</t>
-  </si>
-  <si>
-    <t>Poke ranger F</t>
-  </si>
-  <si>
-    <t>Psychic M</t>
-  </si>
-  <si>
-    <t>Psychic F</t>
-  </si>
-  <si>
-    <t>Fire Breather</t>
-  </si>
-  <si>
-    <t>Student F</t>
-  </si>
-  <si>
-    <t>Doctor M</t>
-  </si>
-  <si>
     <t>Wigglytuff, Raichu, Gloom, Butterfree, Meowth, Phanphy</t>
   </si>
   <si>
@@ -152,6 +65,156 @@
   </si>
   <si>
     <t>Geodude, Hoot Hoot, Shellder, Chansey, Weepinbell, Voltorb</t>
+  </si>
+  <si>
+    <t>Poliwhirl, Arbok, Ambipom, Espeon, Stangly, Flaafy</t>
+  </si>
+  <si>
+    <t>Stantler, Tangela, Weakicle, Sneasal, Slowbro, Ponyta</t>
+  </si>
+  <si>
+    <t>Ggixie, Voltorb, Bohr, Gligar, Embillar, Exeggcute</t>
+  </si>
+  <si>
+    <t>Dragonair, Lickitung, Charmeleon, Dunsparce, Croagunk, Tentacool</t>
+  </si>
+  <si>
+    <t>Jynx, Luxio, Porygon, Flareon, Dolphyke, Pinsir</t>
+  </si>
+  <si>
+    <t>Electabuzz, Seaking, Frogadier, Hitmonlee, Skarmory, Zarat</t>
+  </si>
+  <si>
+    <t>Weezing, Rhyhorn, Lanturn, Gravler, Misdreavus, Magcargo</t>
+  </si>
+  <si>
+    <t>Magneton, Skrelp, Mr. Mime, Scyther, Skiploom, Vulpix</t>
+  </si>
+  <si>
+    <t>Nidorina, Raticate, Sylveon, Pineco, Zaburn, Dugtrio</t>
+  </si>
+  <si>
+    <t>Machoke, Weepinbell, Staryu, Quilava, Nidorino, Sudowoodo</t>
+  </si>
+  <si>
+    <t>Zweilous, Mosquamber, Persian, Lilligant, Quagsire, Snorlax</t>
+  </si>
+  <si>
+    <t>Golem, Kangashkhan, Seadra, Electrode, Beetle, Corsola</t>
+  </si>
+  <si>
+    <t>Arcanine, Coldear, Marowak, Ursaring, Shlizzard, Farfetch'd</t>
+  </si>
+  <si>
+    <t>Tanglegrowth, Willofer, Syvernt, Metang, Porygon 2, Blastoise</t>
+  </si>
+  <si>
+    <t>Houndoom, Meganium, Nidoqueen, Sealeo, Miltank, Ditto</t>
+  </si>
+  <si>
+    <t>Alakazam, Tauros, Kingler, Gliscor, Noctowl, Shrewdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdra, Scizor, Newton, Mistox, Xatu, Clefable </t>
+  </si>
+  <si>
+    <t>Charizard, Wigglytuff, Scrafty, Vaporeon, Venomoth, Sandslash</t>
+  </si>
+  <si>
+    <t>Politoed, Luxray, Pidgeot, Parajoint, Chansey, Haunter</t>
+  </si>
+  <si>
+    <t>Beartle, Octillery, Honchkrow, Rhydon, Seviper, Hitmontop</t>
+  </si>
+  <si>
+    <t>Beauty Ava</t>
+  </si>
+  <si>
+    <t>Aroma Lady Olivia</t>
+  </si>
+  <si>
+    <t>Biker Mason</t>
+  </si>
+  <si>
+    <t>Gentleman Noah</t>
+  </si>
+  <si>
+    <t>Lady Avery</t>
+  </si>
+  <si>
+    <t>Fisherman Carter</t>
+  </si>
+  <si>
+    <t>Sage Jia</t>
+  </si>
+  <si>
+    <t>Scientist F Mila</t>
+  </si>
+  <si>
+    <t>Crushgirl Layla</t>
+  </si>
+  <si>
+    <t>Swimmer M Wyatt</t>
+  </si>
+  <si>
+    <t>Youngster Aaron</t>
+  </si>
+  <si>
+    <t>Bug Catcher Easton</t>
+  </si>
+  <si>
+    <t>Lass Violet</t>
+  </si>
+  <si>
+    <t>Cool t M Ezra</t>
+  </si>
+  <si>
+    <t>Cool t F Sophie</t>
+  </si>
+  <si>
+    <t>Swimmer F Kennedy</t>
+  </si>
+  <si>
+    <t>Bicyclist Muhammad</t>
+  </si>
+  <si>
+    <t>Supernerd Landon</t>
+  </si>
+  <si>
+    <t>Picknicker Emilia</t>
+  </si>
+  <si>
+    <t>Sailor Estaban</t>
+  </si>
+  <si>
+    <t>Dragon Tamer Calder</t>
+  </si>
+  <si>
+    <t>Ruin Maniac Indiana</t>
+  </si>
+  <si>
+    <t>Poke ranger M Elias</t>
+  </si>
+  <si>
+    <t>Poke ranger F Quinn</t>
+  </si>
+  <si>
+    <t>Swimmer F Kaylee</t>
+  </si>
+  <si>
+    <t>Psychic M Ezekial</t>
+  </si>
+  <si>
+    <t>Psychic F Piper</t>
+  </si>
+  <si>
+    <t>Fire Breather Colton</t>
+  </si>
+  <si>
+    <t>Student F Naomi</t>
+  </si>
+  <si>
+    <t>Doctor M Gupta</t>
   </si>
 </sst>
 </file>
@@ -514,13 +577,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,82 +600,82 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -625,12 +688,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,51 +710,81 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -703,13 +797,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,52 +820,82 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
